--- a/biology/Botanique/Coprinus_picaceus/Coprinus_picaceus.xlsx
+++ b/biology/Botanique/Coprinus_picaceus/Coprinus_picaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coprinopsis picacea
-Le Coprin pie[1] (Coprinopsis picacea) est une espèce de champignons basidiomycètes de la famille des Psathyrellaceae.
+Le Coprin pie (Coprinopsis picacea) est une espèce de champignons basidiomycètes de la famille des Psathyrellaceae.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Coprinopsis picacea (Bull.) Redhead, Vilgalys &amp; Moncalvo, 2001[2].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus picaceus Bull., 1785[2].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Coprin pie[3].
-Coprinopsis picacea a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Coprinopsis picacea (Bull.) Redhead, Vilgalys &amp; Moncalvo, 2001.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus picaceus Bull., 1785.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Coprin pie.
+Coprinopsis picacea a pour synonymes :
 Agaricus picaceus Bull., 1785
 Coprinus picaceus var. picaceus , 1821
 Coprinus picaceus (Bull.) Gray, 1821</t>
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chapeau 3 à 7 cm, longtemps ovoïde puis campanulé, brun-noir couvert d'un voile blanc qui se déchire en plaques irrégulières persistantes, créant une tigrure noire et blanche à l'origine de son nom.
 Lames très serrées, blanches ensuite roses puis noircissant et se liquéfiant (espèce déliquescente) par la sporée, noire, phénomène caractéristique des coprins.
@@ -581,7 +597,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coprin pie vient seul ou en petits groupes dans les bois clairs de feuillus, souvent en lisière, voire dans l'herbe des sentiers.
 </t>
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comestible très jeune mais d'odeur désagréable, il serait inoffensif à légèrement toxique selon les sources, c'est un champignon sans intérêt culinaire.
 			Coprins pie à divers stades de maturité.
@@ -646,7 +666,9 @@
           <t>Espèces proches et confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est proche d'aspect du Coprin chevelu et surtout du Coprin noir d'encre mais le contraste de ses couleurs ne prête pas à confusion.
 </t>
